--- a/DATA_goal/Junction_Flooding_160.xlsx
+++ b/DATA_goal/Junction_Flooding_160.xlsx
@@ -471,7 +471,7 @@
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
@@ -655,103 +655,103 @@
         <v>41592.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>22.58</v>
+        <v>2.26</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>15.54</v>
+        <v>1.55</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.22</v>
+        <v>0.42</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>47.49</v>
+        <v>4.75</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>39.28</v>
+        <v>3.93</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>17.77</v>
+        <v>1.78</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>58.8</v>
+        <v>5.88</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>27.34</v>
+        <v>2.73</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.61</v>
+        <v>1.16</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>17.88</v>
+        <v>1.79</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>18.83</v>
+        <v>1.88</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>19.73</v>
+        <v>1.97</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.67</v>
+        <v>0.57</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>17.67</v>
+        <v>1.77</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>24.85</v>
+        <v>2.48</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>14.79</v>
+        <v>1.48</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.78</v>
+        <v>0.38</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>261.62</v>
+        <v>26.16</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>49.2</v>
+        <v>4.92</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>16.31</v>
+        <v>1.63</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>32.64</v>
+        <v>3.26</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>17.03</v>
+        <v>1.7</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.11</v>
+        <v>0.21</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>29.27</v>
+        <v>2.93</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>14.41</v>
+        <v>1.44</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.94</v>
+        <v>1.29</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>15.14</v>
+        <v>1.51</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.49</v>
+        <v>1.95</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>51.9</v>
+        <v>5.19</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.07</v>
+        <v>0.91</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>20.39</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41592.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.11</v>
+        <v>0.71</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.65</v>
+        <v>0.47</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.51</v>
+        <v>0.15</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>14.82</v>
+        <v>1.48</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>12.28</v>
+        <v>1.23</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>26.1</v>
+        <v>2.61</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>8.609999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.58</v>
+        <v>0.36</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.45</v>
+        <v>0.55</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.98</v>
+        <v>0.6</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>6.13</v>
+        <v>0.61</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.79</v>
+        <v>0.18</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>5.56</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>7.77</v>
+        <v>0.78</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.93</v>
+        <v>0.49</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.55</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>77.40000000000001</v>
+        <v>7.74</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>15.79</v>
+        <v>1.58</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.14</v>
+        <v>0.51</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>10.26</v>
+        <v>1.03</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.54</v>
+        <v>0.55</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>12.01</v>
+        <v>1.2</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.54</v>
+        <v>0.45</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.24</v>
+        <v>0.42</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.94</v>
+        <v>0.49</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.16</v>
+        <v>0.62</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>23.76</v>
+        <v>2.38</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.76</v>
+        <v>0.28</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.42</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41592.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.63</v>
+        <v>0.16</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.13</v>
+        <v>0.31</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.61</v>
+        <v>0.26</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>9.5</v>
+        <v>0.95</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.98</v>
+        <v>0.2</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.34</v>
+        <v>0.13</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.23</v>
+        <v>0.12</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.28</v>
+        <v>0.13</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.77</v>
+        <v>0.18</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.34</v>
+        <v>0.13</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>12.2</v>
+        <v>1.22</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.89</v>
+        <v>0.39</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.18</v>
+        <v>0.12</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.4</v>
+        <v>0.24</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.4</v>
+        <v>0.14</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>4.01</v>
+        <v>0.4</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.11</v>
+        <v>0.11</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.31</v>
+        <v>0.13</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>8.710000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.48</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41592.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9.51</v>
+        <v>0.95</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.81</v>
+        <v>0.68</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>20.38</v>
+        <v>2.04</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>16.86</v>
+        <v>1.69</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.49</v>
+        <v>0.75</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>25.92</v>
+        <v>2.59</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>11.52</v>
+        <v>1.15</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.98</v>
+        <v>0.5</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.52</v>
+        <v>0.75</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.27</v>
+        <v>0.83</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.58</v>
+        <v>0.86</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.39</v>
+        <v>0.24</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.44</v>
+        <v>0.74</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>10.46</v>
+        <v>1.05</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.4</v>
+        <v>0.64</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>105.93</v>
+        <v>10.59</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>20.63</v>
+        <v>2.06</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.87</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>13.68</v>
+        <v>1.37</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7.44</v>
+        <v>0.74</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>12.58</v>
+        <v>1.26</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.07</v>
+        <v>0.61</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.47</v>
+        <v>0.55</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.41</v>
+        <v>0.64</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.619999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>22.92</v>
+        <v>2.29</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.81</v>
+        <v>0.38</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.59</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41592.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>14.22</v>
+        <v>1.42</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>10.41</v>
+        <v>1.04</v>
       </c>
       <c r="D6" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>16.21</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA6" s="4" t="n">
         <v>0.91</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>30.68</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>25.37</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>41.69</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>17.22</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>12.41</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>11.13</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.42</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>162.05</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>31.08</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>10.27</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>20.84</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>20.47</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>9.07</v>
-      </c>
       <c r="AB6" s="4" t="n">
-        <v>8.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>9.49</v>
+        <v>0.95</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>12.98</v>
+        <v>1.3</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>37.67</v>
+        <v>3.77</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>5.76</v>
+        <v>0.58</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>12.84</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41592.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>11.34</v>
+        <v>1.13</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>8.289999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>24.45</v>
+        <v>2.45</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>20.22</v>
+        <v>2.02</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>8.92</v>
+        <v>0.89</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>35.77</v>
+        <v>3.58</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>13.73</v>
+        <v>1.37</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>6.07</v>
+        <v>0.61</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>9.06</v>
+        <v>0.91</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>9.91</v>
+        <v>0.99</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>10.33</v>
+        <v>1.03</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>2.85</v>
+        <v>0.29</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>8.869999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>12.61</v>
+        <v>1.26</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>7.53</v>
+        <v>0.75</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.55</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>127.73</v>
+        <v>12.77</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>24.86</v>
+        <v>2.49</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>8.19</v>
+        <v>0.82</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>16.65</v>
+        <v>1.67</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>17.2</v>
+        <v>1.72</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>7.23</v>
+        <v>0.72</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>6.45</v>
+        <v>0.64</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>7.57</v>
+        <v>0.76</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>10.35</v>
+        <v>1.04</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>32.45</v>
+        <v>3.24</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>4.59</v>
+        <v>0.46</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>10.24</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41592.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>11.15</v>
+        <v>1.11</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>8.18</v>
+        <v>0.82</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>24.07</v>
+        <v>2.41</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>19.9</v>
+        <v>1.99</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>8.77</v>
+        <v>0.88</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>34.64</v>
+        <v>3.46</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>13.5</v>
+        <v>1.35</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>5.98</v>
+        <v>0.6</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>8.92</v>
+        <v>0.89</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>9.75</v>
+        <v>0.98</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>10.17</v>
+        <v>1.02</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>2.8</v>
+        <v>0.28</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>8.720000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>12.4</v>
+        <v>1.24</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>7.38</v>
+        <v>0.74</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>125.43</v>
+        <v>12.54</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>24.41</v>
+        <v>2.44</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>16.37</v>
+        <v>1.64</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>8.73</v>
+        <v>0.87</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>16.67</v>
+        <v>1.67</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>7.11</v>
+        <v>0.71</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>6.33</v>
+        <v>0.63</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>7.43</v>
+        <v>0.74</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>10.19</v>
+        <v>1.02</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>31.34</v>
+        <v>3.13</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>4.52</v>
+        <v>0.45</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>10.07</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41592.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>14.6</v>
+        <v>1.46</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>10.81</v>
+        <v>1.08</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.75</v>
+        <v>0.08</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>31.61</v>
+        <v>3.16</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>26.14</v>
+        <v>2.61</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>11.49</v>
+        <v>1.15</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>44.01</v>
+        <v>4.4</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>17.68</v>
+        <v>1.77</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>7.87</v>
+        <v>0.79</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>11.74</v>
+        <v>1.17</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>12.78</v>
+        <v>1.28</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>13.38</v>
+        <v>1.34</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>3.67</v>
+        <v>0.37</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>11.43</v>
+        <v>1.14</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>16.27</v>
+        <v>1.63</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>9.609999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>166.64</v>
+        <v>16.66</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>31.94</v>
+        <v>3.19</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>10.55</v>
+        <v>1.05</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>21.49</v>
+        <v>2.15</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>11.42</v>
+        <v>1.14</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.43</v>
+        <v>0.14</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>21.43</v>
+        <v>2.14</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>9.32</v>
+        <v>0.93</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>8.25</v>
+        <v>0.83</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>9.699999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>13.37</v>
+        <v>1.34</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>39.82</v>
+        <v>3.98</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>5.95</v>
+        <v>0.59</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>13.19</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41592.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>5.19</v>
+        <v>0.52</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>3.75</v>
+        <v>0.37</v>
       </c>
       <c r="D10" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G10" s="4" t="n">
         <v>0.41</v>
       </c>
-      <c r="E10" s="4" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>9.210000000000001</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>4.08</v>
-      </c>
       <c r="H10" s="4" t="n">
-        <v>19.99</v>
+        <v>2</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>6.28</v>
+        <v>0.63</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>2.79</v>
+        <v>0.28</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>4.1</v>
+        <v>0.41</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>4.56</v>
+        <v>0.46</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>4.7</v>
+        <v>0.47</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>1.31</v>
+        <v>0.13</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>4.06</v>
+        <v>0.41</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>5.81</v>
+        <v>0.58</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>3.49</v>
+        <v>0.35</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>54.51</v>
+        <v>5.45</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>11.57</v>
+        <v>1.16</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>3.75</v>
+        <v>0.37</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>7.75</v>
+        <v>0.77</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>4.12</v>
+        <v>0.41</v>
       </c>
       <c r="Y10" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AA10" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AB10" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC10" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AD10" s="4" t="n">
         <v>0.47</v>
       </c>
-      <c r="Z10" s="4" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>4.74</v>
-      </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>18.4</v>
+        <v>1.84</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>2.08</v>
+        <v>0.21</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>4.69</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_160.xlsx
+++ b/DATA_goal/Junction_Flooding_160.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,7 +454,7 @@
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
@@ -471,7 +471,7 @@
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41592.34027777778</v>
+        <v>44841.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.26</v>
+        <v>0.46</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.55</v>
+        <v>0.39</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.75</v>
+        <v>0.57</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.93</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.78</v>
+        <v>0.14</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.88</v>
+        <v>0.71</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.73</v>
+        <v>0.33</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.16</v>
+        <v>0.3</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.79</v>
+        <v>0.26</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.88</v>
+        <v>0.37</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.97</v>
+        <v>0.5</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.57</v>
+        <v>0.22</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.77</v>
+        <v>0.22</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.48</v>
+        <v>0.36</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.48</v>
+        <v>0.17</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.38</v>
+        <v>0.06</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>26.16</v>
+        <v>3.73</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.92</v>
+        <v>0.66</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.63</v>
+        <v>0.43</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.26</v>
+        <v>0.52</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.7</v>
+        <v>0.17</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.21</v>
+        <v>0.04</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.93</v>
+        <v>0.3</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.44</v>
+        <v>0.18</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.29</v>
+        <v>0.17</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.51</v>
+        <v>0.59</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.95</v>
+        <v>0.37</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.19</v>
+        <v>0.52</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.91</v>
+        <v>0.1</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.04</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41592.34722222222</v>
+        <v>44841.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.71</v>
+        <v>0.42</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.47</v>
+        <v>0.33</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.48</v>
+        <v>0.73</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.23</v>
+        <v>0.66</v>
       </c>
       <c r="G3" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="W3" s="4" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="H3" s="4" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="J3" s="4" t="n">
+      <c r="X3" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AD3" s="4" t="n">
         <v>0.36</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>7.74</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.62</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.38</v>
+        <v>0.91</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.28</v>
+        <v>0.13</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.64</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41592.35416666666</v>
+        <v>44841.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.16</v>
+        <v>2.38</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.08</v>
+        <v>1.79</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.31</v>
+        <v>5.06</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.26</v>
+        <v>4.21</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.81</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0.95</v>
+        <v>6.59</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.2</v>
+        <v>2.82</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.08</v>
+        <v>1.32</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.91</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.13</v>
+        <v>2.06</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.12</v>
+        <v>2.2</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.63</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.82</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.18</v>
+        <v>2.63</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.49</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>1.22</v>
+        <v>27.28</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.39</v>
+        <v>5.1</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.73</v>
       </c>
       <c r="W4" s="4" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.24</v>
       </c>
-      <c r="X4" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>0.4</v>
+        <v>3.33</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.49</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.32</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.63</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.13</v>
+        <v>2.16</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.87</v>
+        <v>5.98</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.95</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.15</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41592.36111111111</v>
+        <v>44841.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.95</v>
+        <v>1.31</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.99</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="E5" s="4" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Z5" s="4" t="n">
         <v>2.04</v>
       </c>
-      <c r="F5" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>10.59</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>1.26</v>
-      </c>
       <c r="AA5" s="4" t="n">
-        <v>0.61</v>
+        <v>0.82</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.73</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.64</v>
+        <v>0.91</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.86</v>
+        <v>1.19</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.29</v>
+        <v>3.87</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.38</v>
+        <v>0.52</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.86</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41592.36805555555</v>
+        <v>44841.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.42</v>
+        <v>23.68</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.04</v>
+        <v>17.83</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.09</v>
+        <v>0.7</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>3.07</v>
+        <v>50.88</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.54</v>
+        <v>42.23</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.12</v>
+        <v>18.25</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>4.17</v>
+        <v>70.48</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.72</v>
+        <v>28.35</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.76</v>
+        <v>13.07</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.14</v>
+        <v>19.11</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.24</v>
+        <v>20.56</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.3</v>
+        <v>21.9</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.36</v>
+        <v>6.17</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.11</v>
+        <v>18.28</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.58</v>
+        <v>26.34</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>15.03</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.62</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>16.21</v>
+        <v>272.95</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>3.11</v>
+        <v>51.23</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.03</v>
+        <v>17.16</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.08</v>
+        <v>34.81</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.11</v>
+        <v>18.13</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.14</v>
+        <v>2.41</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>2.05</v>
+        <v>34.64</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.91</v>
+        <v>14.98</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>13.24</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.95</v>
+        <v>15.94</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.3</v>
+        <v>21.62</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>3.77</v>
+        <v>63.91</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.58</v>
+        <v>9.59</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41592.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>12.77</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41592.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>12.54</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41592.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>16.66</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41592.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41592.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>20.18</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>15.03</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>43.77</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>36.18</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>15.88</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>58.04</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>24.43</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>10.91</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>16.29</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>17.65</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>18.55</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>15.79</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>22.52</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>13.19</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>233.02</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>44.06</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>14.58</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>29.74</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>15.74</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>28.72</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>12.87</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>13.36</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>52.43</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>18.22</v>
+        <v>21.13</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_160.xlsx
+++ b/DATA_goal/Junction_Flooding_160.xlsx
@@ -454,7 +454,7 @@
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
@@ -655,103 +655,103 @@
         <v>44841.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.46</v>
+        <v>4.64</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.95</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.68</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.56</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.4</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.71</v>
+        <v>7.06</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.27</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.3</v>
+        <v>2.97</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.59</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.72</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.5</v>
+        <v>4.97</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.21</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.2</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.58</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.71</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>3.73</v>
+        <v>37.26</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.6</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.25</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.16</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.72</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.3</v>
+        <v>3.04</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.18</v>
+        <v>1.79</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.9</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.66</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.2</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44841.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.21</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.3</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.35</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.58</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.29</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.02</v>
+        <v>10.19</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.16</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.69</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.3</v>
+        <v>3.01</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.43</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.4</v>
+        <v>4.05</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.58</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.62</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.18</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>3.8</v>
+        <v>38.03</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.77</v>
+        <v>7.75</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.27</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.57</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.46</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.23</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.26</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.78</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.36</v>
+        <v>3.61</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.07</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.32</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44841.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.38</v>
+        <v>23.78</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.79</v>
+        <v>17.94</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5.06</v>
+        <v>50.6</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.21</v>
+        <v>42.15</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.81</v>
+        <v>18.05</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.59</v>
+        <v>65.88</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.82</v>
+        <v>28.21</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.32</v>
+        <v>13.22</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.91</v>
+        <v>19.08</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.06</v>
+        <v>20.58</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.2</v>
+        <v>22.03</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.63</v>
+        <v>6.33</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.82</v>
+        <v>18.17</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.63</v>
+        <v>26.29</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.49</v>
+        <v>14.9</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>27.28</v>
+        <v>272.83</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>5.1</v>
+        <v>50.98</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.73</v>
+        <v>17.29</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.47</v>
+        <v>34.74</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.8</v>
+        <v>17.98</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.41</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.33</v>
+        <v>33.3</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.49</v>
+        <v>14.92</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.32</v>
+        <v>13.24</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.63</v>
+        <v>16.27</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.16</v>
+        <v>21.65</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.98</v>
+        <v>59.76</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.95</v>
+        <v>9.52</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.1</v>
+        <v>21.04</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44841.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.31</v>
+        <v>13.15</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.93</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.78</v>
+        <v>27.79</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.32</v>
+        <v>23.19</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.24</v>
+        <v>42.42</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.55</v>
+        <v>15.5</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.39</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.51</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.13</v>
+        <v>11.34</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.22</v>
+        <v>12.19</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.57</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.45</v>
+        <v>14.52</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>14.7</v>
+        <v>147.02</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.82</v>
+        <v>28.17</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.57</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.92</v>
+        <v>19.22</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.04</v>
+        <v>20.42</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.82</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.33</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.91</v>
+        <v>9.1</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.19</v>
+        <v>11.93</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.87</v>
+        <v>38.7</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.16</v>
+        <v>11.55</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_160.xlsx
+++ b/DATA_goal/Junction_Flooding_160.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,100 +655,100 @@
         <v>44841.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.64</v>
+        <v>4.639</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>3.95</v>
+        <v>3.949</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.68</v>
+        <v>5.682</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>5.56</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.4</v>
+        <v>1.404</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>7.06</v>
+        <v>7.057</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>3.27</v>
+        <v>3.269</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.97</v>
+        <v>2.974</v>
       </c>
       <c r="K2" s="4" t="n">
         <v>2.59</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>3.72</v>
+        <v>3.719</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.97</v>
+        <v>4.974</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.21</v>
+        <v>2.211</v>
       </c>
       <c r="O2" s="4" t="n">
         <v>2.2</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.58</v>
+        <v>3.582</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.71</v>
+        <v>1.706</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.61</v>
+        <v>0.605</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.024</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>37.26</v>
+        <v>37.258</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>6.6</v>
+        <v>6.598</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.25</v>
+        <v>4.255</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.16</v>
+        <v>5.158</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.72</v>
+        <v>1.722</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.38</v>
+        <v>0.377</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>3.04</v>
+        <v>3.036</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.79</v>
+        <v>1.789</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.74</v>
+        <v>1.745</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.9</v>
+        <v>5.904</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.66</v>
+        <v>3.659</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.98</v>
+        <v>3.978</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.2</v>
+        <v>5.202</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.99</v>
+        <v>0.995</v>
       </c>
       <c r="AH2" s="4" t="n">
         <v>2.83</v>
@@ -759,103 +759,103 @@
         <v>44841.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.21</v>
+        <v>4.208</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.3</v>
+        <v>3.296</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>7.35</v>
+        <v>7.349</v>
       </c>
       <c r="F3" s="4" t="n">
         <v>6.58</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.29</v>
+        <v>2.293</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>10.19</v>
+        <v>10.195</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>4.16</v>
+        <v>4.159</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.69</v>
+        <v>2.688</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.01</v>
+        <v>3.011</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.43</v>
+        <v>3.427</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.05</v>
+        <v>4.048</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.58</v>
+        <v>1.576</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.62</v>
+        <v>2.625</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>4.18</v>
+        <v>4.181</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2</v>
+        <v>2.003</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.48</v>
+        <v>0.477</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.017</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>38.03</v>
+        <v>38.025</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>7.75</v>
+        <v>7.748</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.27</v>
+        <v>3.268</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>5.57</v>
+        <v>5.573</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.46</v>
+        <v>2.456</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.39</v>
+        <v>0.391</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>5.23</v>
+        <v>5.225</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.26</v>
+        <v>2.256</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.17</v>
+        <v>2.166</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.78</v>
+        <v>3.777</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>3.61</v>
+        <v>3.605</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.33</v>
+        <v>1.327</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>9.07</v>
+        <v>9.071999999999999</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.32</v>
+        <v>1.324</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.15</v>
+        <v>3.146</v>
       </c>
     </row>
     <row r="4">
@@ -863,28 +863,28 @@
         <v>44841.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>23.78</v>
+        <v>23.776</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>17.94</v>
+        <v>17.939</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.67</v>
+        <v>0.671</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>50.6</v>
+        <v>50.601</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>42.15</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>18.05</v>
+        <v>18.054</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>65.88</v>
+        <v>65.884</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>28.21</v>
+        <v>28.212</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>13.22</v>
@@ -893,73 +893,73 @@
         <v>19.08</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>20.58</v>
+        <v>20.579</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>22.03</v>
+        <v>22.034</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>6.33</v>
+        <v>6.327</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>18.17</v>
+        <v>18.175</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>26.29</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>14.9</v>
+        <v>14.903</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.54</v>
+        <v>0.535</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.61</v>
+        <v>0.607</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>272.83</v>
+        <v>272.825</v>
       </c>
       <c r="U4" s="4" t="n">
         <v>50.98</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>17.29</v>
+        <v>17.292</v>
       </c>
       <c r="W4" s="4" t="n">
         <v>34.74</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>17.98</v>
+        <v>17.976</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.41</v>
+        <v>2.414</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>33.3</v>
+        <v>33.296</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>14.92</v>
+        <v>14.924</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>13.24</v>
+        <v>13.239</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>16.27</v>
+        <v>16.273</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>21.65</v>
+        <v>21.645</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.8</v>
+        <v>0.796</v>
       </c>
       <c r="AF4" s="4" t="n">
         <v>59.76</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.52</v>
+        <v>9.521000000000001</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>21.04</v>
+        <v>21.041</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>11.55</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44841.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>23.68</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>17.83</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>50.88</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>42.23</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>18.25</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>70.48</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>28.35</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>13.07</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>19.11</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>20.56</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>18.28</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>26.34</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>15.03</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>272.95</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>51.23</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>17.16</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>34.81</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>18.13</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>34.64</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>14.98</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>13.24</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>15.94</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>21.62</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>63.91</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>21.13</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_160.xlsx
+++ b/DATA_goal/Junction_Flooding_160.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,12 +447,12 @@
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
@@ -462,9 +462,9 @@
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
     <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
@@ -473,7 +473,7 @@
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
     <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
@@ -967,103 +967,207 @@
         <v>44841.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13.15</v>
+        <v>13.145</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.93</v>
+        <v>9.928000000000001</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.33</v>
+        <v>0.332</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>27.79</v>
+        <v>27.787</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>23.19</v>
+        <v>23.192</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>9.859999999999999</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>42.42</v>
+        <v>42.416</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.5</v>
+        <v>15.501</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.39</v>
+        <v>7.392</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.51</v>
+        <v>10.513</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.34</v>
+        <v>11.339</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.19</v>
+        <v>12.185</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.57</v>
+        <v>3.574</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.970000000000001</v>
+        <v>9.968999999999999</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>14.52</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.130000000000001</v>
+        <v>8.128</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.38</v>
+        <v>0.379</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.3</v>
+        <v>0.304</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>147.02</v>
+        <v>147.016</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>28.17</v>
+        <v>28.168</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.57</v>
+        <v>9.571999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>19.22</v>
+        <v>19.216</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.859999999999999</v>
+        <v>9.865</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>1.33</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>20.42</v>
+        <v>20.424</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.220000000000001</v>
+        <v>8.218999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.33</v>
+        <v>7.332</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.1</v>
+        <v>9.098000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.93</v>
+        <v>11.928</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.57</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>38.7</v>
+        <v>38.701</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.21</v>
+        <v>5.207</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.55</v>
+        <v>11.551</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44841.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>23.68</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>17.83</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>50.88</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>42.23</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>70.48</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>28.35</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>13.07</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>19.11</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>20.56</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>18.28</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>26.34</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>15.03</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>272.95</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>51.23</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>17.16</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>34.81</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>18.13</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>34.64</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>14.98</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>13.24</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>63.91</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>21.13</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_160.xlsx
+++ b/DATA_goal/Junction_Flooding_160.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,12 +447,12 @@
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
@@ -462,9 +462,9 @@
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
-    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
@@ -473,7 +473,7 @@
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
     <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
@@ -967,207 +967,103 @@
         <v>44841.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13.145</v>
+        <v>13.15</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.928000000000001</v>
+        <v>9.93</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.332</v>
+        <v>0.33</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>27.787</v>
+        <v>27.79</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>23.192</v>
+        <v>23.19</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>9.859999999999999</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>42.416</v>
+        <v>42.42</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.501</v>
+        <v>15.5</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.392</v>
+        <v>7.39</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.513</v>
+        <v>10.51</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.339</v>
+        <v>11.34</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.185</v>
+        <v>12.19</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.574</v>
+        <v>3.57</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.968999999999999</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>14.52</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.128</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.379</v>
+        <v>0.38</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.304</v>
+        <v>0.3</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>147.016</v>
+        <v>147.02</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>28.168</v>
+        <v>28.17</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.571999999999999</v>
+        <v>9.57</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>19.216</v>
+        <v>19.22</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.865</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>1.33</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>20.424</v>
+        <v>20.42</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.218999999999999</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.332</v>
+        <v>7.33</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.098000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.928</v>
+        <v>11.93</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>38.701</v>
+        <v>38.7</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.207</v>
+        <v>5.21</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.551</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44841.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>23.68</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>17.83</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>50.88</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>42.23</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>18.25</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>70.48</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>28.35</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>13.07</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>19.11</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>20.56</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>18.28</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>26.34</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>15.03</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>272.95</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>51.23</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>17.16</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>34.81</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>18.13</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>34.64</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>14.98</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>13.24</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>15.94</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>21.62</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>63.91</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>21.13</v>
+        <v>11.55</v>
       </c>
     </row>
   </sheetData>
